--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.291221</v>
+        <v>1.298672</v>
       </c>
       <c r="H2">
-        <v>0.873663</v>
+        <v>3.896016</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>0.5400902153383333</v>
+        <v>1.780318709562667</v>
       </c>
       <c r="R2">
-        <v>4.860811938045</v>
+        <v>16.022868386064</v>
       </c>
       <c r="S2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="T2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.291221</v>
+        <v>1.298672</v>
       </c>
       <c r="H3">
-        <v>0.873663</v>
+        <v>3.896016</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>27.05842771407767</v>
+        <v>120.6644522074187</v>
       </c>
       <c r="R3">
-        <v>243.525849426699</v>
+        <v>1085.980069866768</v>
       </c>
       <c r="S3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="T3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.291221</v>
+        <v>1.298672</v>
       </c>
       <c r="H4">
-        <v>0.873663</v>
+        <v>3.896016</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>5.059816837658333</v>
+        <v>38.594563053248</v>
       </c>
       <c r="R4">
-        <v>45.538351538925</v>
+        <v>347.351067479232</v>
       </c>
       <c r="S4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="T4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.291221</v>
+        <v>1.298672</v>
       </c>
       <c r="H5">
-        <v>0.873663</v>
+        <v>3.896016</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>0.04721740805600001</v>
+        <v>0.358356850352</v>
       </c>
       <c r="R5">
-        <v>0.424956672504</v>
+        <v>3.225211653168</v>
       </c>
       <c r="S5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="T5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
     </row>
   </sheetData>
